--- a/tests/data.scripts/test/calorimetry/ds.06.ampoule.no.opt/data.xlsx
+++ b/tests/data.scripts/test/calorimetry/ds.06.ampoule.no.opt/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -934,15 +937,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -950,16 +953,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0145018218194805</v>
+        <v>0.0118406879328289</v>
       </c>
     </row>
     <row r="4">
@@ -1346,6 +1349,14 @@
       </c>
       <c r="B4" t="n">
         <v>0.0163836400893544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0124721912892465</v>
       </c>
     </row>
   </sheetData>
@@ -1373,18 +1384,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1392,13 +1403,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1406,13 +1417,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1420,13 +1431,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1434,13 +1445,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1448,13 +1459,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1462,13 +1473,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1490,16 +1501,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -1518,13 +1529,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -1532,13 +1543,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1546,13 +1557,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1560,13 +1571,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1574,13 +1585,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1588,13 +1599,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -1602,13 +1613,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1616,13 +1627,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1630,13 +1641,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1644,13 +1655,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1658,13 +1669,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
@@ -1672,13 +1683,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -1700,7 +1711,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
